--- a/Advanced Python/newsheetnewnew3.xlsx
+++ b/Advanced Python/newsheetnewnew3.xlsx
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.314290761947632</t>
+          <t>0.0780024528503418</t>
         </is>
       </c>
     </row>
